--- a/2011-auction-trends-data.xlsx
+++ b/2011-auction-trends-data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-40" windowWidth="23880" windowHeight="14660" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-20" yWindow="-40" windowWidth="23880" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Imported" sheetId="8" r:id="rId1"/>
     <sheet name="Formulae" sheetId="7" r:id="rId2"/>
     <sheet name="Working" sheetId="1" r:id="rId3"/>
     <sheet name="Clean" sheetId="5" r:id="rId4"/>
-    <sheet name="Refine-set" sheetId="9" r:id="rId5"/>
+    <sheet name="2011-auction-trends-refine.csv" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="tabula_5bd2336974db7302cb7c7cd9081f622a5ee3ba59" localSheetId="0">Imported!$A$1:$E$101</definedName>
@@ -3494,7 +3494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -11626,6 +11626,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -24867,7 +24868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1:L1048576"/>
     </sheetView>
